--- a/data/542/BOKNA/Annual.xlsx
+++ b/data/542/BOKNA/Annual.xlsx
@@ -487,7 +487,8 @@
     <col min="70" max="70" width="13.0" customWidth="true"/>
     <col min="71" max="71" width="13.0" customWidth="true"/>
     <col min="72" max="72" width="13.0" customWidth="true"/>
-    <col min="73" max="73" width="4.0" customWidth="true"/>
+    <col min="73" max="73" width="13.0" customWidth="true"/>
+    <col min="74" max="74" width="4.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -856,6 +857,11 @@
           <t>2021</t>
         </is>
       </c>
+      <c r="BV1" s="2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1082,7 +1088,10 @@
       <c r="BT2" s="5" t="n">
         <v>35421.0</v>
       </c>
-      <c r="BU2" s="1" t="inlineStr">
+      <c r="BU2" s="5" t="n">
+        <v>37827.3</v>
+      </c>
+      <c r="BV2" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1313,7 +1322,10 @@
       <c r="BT3" s="5" t="n">
         <v>1945.1</v>
       </c>
-      <c r="BU3" s="1" t="inlineStr">
+      <c r="BU3" s="5" t="n">
+        <v>2008.2</v>
+      </c>
+      <c r="BV3" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1544,7 +1556,10 @@
       <c r="BT4" s="5" t="n">
         <v>479628.5</v>
       </c>
-      <c r="BU4" s="1" t="inlineStr">
+      <c r="BU4" s="5" t="n">
+        <v>522331.2</v>
+      </c>
+      <c r="BV4" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1775,7 +1790,10 @@
       <c r="BT5" s="5" t="n">
         <v>43118.7</v>
       </c>
-      <c r="BU5" s="1" t="inlineStr">
+      <c r="BU5" s="5" t="n">
+        <v>37934.2</v>
+      </c>
+      <c r="BV5" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2006,7 +2024,10 @@
       <c r="BT6" s="5" t="n">
         <v>105179.6</v>
       </c>
-      <c r="BU6" s="1" t="inlineStr">
+      <c r="BU6" s="5" t="n">
+        <v>105920.0</v>
+      </c>
+      <c r="BV6" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2237,7 +2258,10 @@
       <c r="BT7" s="5" t="n">
         <v>172245.3</v>
       </c>
-      <c r="BU7" s="1" t="inlineStr">
+      <c r="BU7" s="5" t="n">
+        <v>180741.4</v>
+      </c>
+      <c r="BV7" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2468,7 +2492,10 @@
       <c r="BT8" s="5" t="n">
         <v>56077.8</v>
       </c>
-      <c r="BU8" s="1" t="inlineStr">
+      <c r="BU8" s="5" t="n">
+        <v>67546.2</v>
+      </c>
+      <c r="BV8" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2699,7 +2726,10 @@
       <c r="BT9" s="5" t="n">
         <v>1933152.4</v>
       </c>
-      <c r="BU9" s="1" t="inlineStr">
+      <c r="BU9" s="5" t="n">
+        <v>2057447.8</v>
+      </c>
+      <c r="BV9" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2969,6 +2999,11 @@
           <t/>
         </is>
       </c>
+      <c r="BV10" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3234,6 +3269,11 @@
           <t/>
         </is>
       </c>
+      <c r="BV11" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3460,7 +3500,10 @@
       <c r="BT12" s="5" t="n">
         <v>601465.0</v>
       </c>
-      <c r="BU12" s="1" t="inlineStr">
+      <c r="BU12" s="5" t="n">
+        <v>646165.9</v>
+      </c>
+      <c r="BV12" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3691,7 +3734,10 @@
       <c r="BT13" s="5" t="n">
         <v>897449.2</v>
       </c>
-      <c r="BU13" s="1" t="inlineStr">
+      <c r="BU13" s="5" t="n">
+        <v>952529.9</v>
+      </c>
+      <c r="BV13" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3922,7 +3968,10 @@
       <c r="BT14" s="5" t="n">
         <v>349122.5</v>
       </c>
-      <c r="BU14" s="1" t="inlineStr">
+      <c r="BU14" s="5" t="n">
+        <v>374682.7</v>
+      </c>
+      <c r="BV14" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4153,7 +4202,10 @@
       <c r="BT15" s="5" t="n">
         <v>14456.9</v>
       </c>
-      <c r="BU15" s="1" t="inlineStr">
+      <c r="BU15" s="5" t="n">
+        <v>8451.0</v>
+      </c>
+      <c r="BV15" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4384,7 +4436,10 @@
       <c r="BT16" s="5" t="n">
         <v>704554.0</v>
       </c>
-      <c r="BU16" s="1" t="inlineStr">
+      <c r="BU16" s="5" t="n">
+        <v>858424.8</v>
+      </c>
+      <c r="BV16" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4615,7 +4670,10 @@
       <c r="BT17" s="5" t="n">
         <v>633487.5</v>
       </c>
-      <c r="BU17" s="1" t="inlineStr">
+      <c r="BU17" s="5" t="n">
+        <v>782697.7</v>
+      </c>
+      <c r="BV17" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4846,7 +4904,10 @@
       <c r="BT18" s="5" t="n">
         <v>-407.7</v>
       </c>
-      <c r="BU18" s="1" t="inlineStr">
+      <c r="BU18" s="5" t="n">
+        <v>-108.8</v>
+      </c>
+      <c r="BV18" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5077,7 +5138,10 @@
       <c r="BT19" s="5" t="n">
         <v>14868.3</v>
       </c>
-      <c r="BU19" s="1" t="inlineStr">
+      <c r="BU19" s="5" t="n">
+        <v>25128.7</v>
+      </c>
+      <c r="BV19" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5308,7 +5372,10 @@
       <c r="BT20" s="5" t="n">
         <v>1948020.7</v>
       </c>
-      <c r="BU20" s="1" t="inlineStr">
+      <c r="BU20" s="5" t="n">
+        <v>2082576.5</v>
+      </c>
+      <c r="BV20" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5539,7 +5606,10 @@
       <c r="BT21" s="5" t="n">
         <v>1945919.8</v>
       </c>
-      <c r="BU21" s="1" t="inlineStr">
+      <c r="BU21" s="5" t="n">
+        <v>2078537.3</v>
+      </c>
+      <c r="BV21" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
